--- a/pywebio1/更新后的表/update-UPF.xlsx
+++ b/pywebio1/更新后的表/update-UPF.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -326,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,18 +439,12 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -478,9 +472,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -498,9 +489,6 @@
     </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -537,6 +525,18 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -669,7 +669,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -701,9 +701,6 @@
     <xf numFmtId="165" fontId="10" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -735,7 +732,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
@@ -753,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1143,15 +1140,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col width="8.7265625" customWidth="1" min="2" max="3"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1320,7 +1333,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="14.5" customHeight="1">
+    <row r="5" ht="30" customHeight="1">
       <c r="A5" s="108" t="inlineStr">
         <is>
           <t>一、定制流量</t>
@@ -1344,29 +1357,29 @@
       <c r="Q5" s="116" t="n"/>
     </row>
     <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="128" t="inlineStr">
+      <c r="A6" s="117" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
       <c r="B6" s="118" t="inlineStr">
         <is>
-          <t>物联卡</t>
+          <t>人联卡</t>
         </is>
       </c>
       <c r="C6" s="119" t="inlineStr">
         <is>
-          <t>月包</t>
+          <t>5G畅享套餐</t>
         </is>
       </c>
       <c r="D6" s="119" t="inlineStr">
         <is>
-          <t>通用</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="120" t="inlineStr">
         <is>
-          <t>300GB</t>
+          <t>月流量60GB，通话1000分钟</t>
         </is>
       </c>
       <c r="F6" s="121" t="inlineStr">
@@ -1379,32 +1392,32 @@
           <t>张</t>
         </is>
       </c>
-      <c r="H6" s="46" t="n">
+      <c r="H6" s="44" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" s="123" t="inlineStr">
         <is>
-          <t>570</t>
-        </is>
-      </c>
-      <c r="J6" s="53" t="inlineStr">
-        <is>
-          <t>90%</t>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="J6" s="50" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
       <c r="K6" s="123" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>199</t>
         </is>
       </c>
       <c r="L6" s="123" t="inlineStr">
         <is>
-          <t>51300</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="M6" s="123" t="inlineStr">
         <is>
-          <t>615600</t>
+          <t>238800</t>
         </is>
       </c>
       <c r="N6" s="124" t="inlineStr">
@@ -1419,35 +1432,35 @@
       </c>
       <c r="P6" s="126" t="inlineStr">
         <is>
-          <t>615600</t>
+          <t>238800</t>
         </is>
       </c>
       <c r="Q6" s="127" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="128" t="inlineStr">
+      <c r="A7" s="117" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
       <c r="B7" s="118" t="inlineStr">
         <is>
-          <t>流量池</t>
+          <t>物联卡</t>
         </is>
       </c>
       <c r="C7" s="119" t="inlineStr">
         <is>
-          <t>定向流量</t>
+          <t>月包</t>
         </is>
       </c>
       <c r="D7" s="119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通用</t>
         </is>
       </c>
       <c r="E7" s="120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10GB</t>
         </is>
       </c>
       <c r="F7" s="121" t="inlineStr">
@@ -1457,35 +1470,35 @@
       </c>
       <c r="G7" s="122" t="inlineStr">
         <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="H7" s="46" t="n">
+          <t>张</t>
+        </is>
+      </c>
+      <c r="H7" s="44" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" s="123" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J7" s="53" t="inlineStr">
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J7" s="50" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
       <c r="K7" s="123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L7" s="123" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="M7" s="123" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="N7" s="124" t="inlineStr">
@@ -1498,186 +1511,583 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P7" s="129" t="inlineStr">
-        <is>
-          <t>6000</t>
+      <c r="P7" s="126" t="inlineStr">
+        <is>
+          <t>60000</t>
         </is>
       </c>
       <c r="Q7" s="127" t="n"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="130" t="inlineStr">
-        <is>
-          <t>二、业务隔离费</t>
-        </is>
-      </c>
-      <c r="B8" s="118" t="n"/>
-      <c r="C8" s="131" t="n"/>
-      <c r="D8" s="131" t="n"/>
-      <c r="E8" s="131" t="n"/>
-      <c r="F8" s="132" t="n"/>
-      <c r="G8" s="133" t="n"/>
-      <c r="H8" s="133" t="n"/>
-      <c r="I8" s="134" t="n"/>
-      <c r="J8" s="22" t="n"/>
-      <c r="K8" s="134" t="n"/>
-      <c r="L8" s="134" t="n"/>
-      <c r="M8" s="134" t="n"/>
-      <c r="N8" s="135" t="n"/>
-      <c r="O8" s="136" t="n"/>
-      <c r="P8" s="137" t="n"/>
-      <c r="Q8" s="138" t="n"/>
+      <c r="A8" s="117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B8" s="118" t="inlineStr">
+        <is>
+          <t>流量池</t>
+        </is>
+      </c>
+      <c r="C8" s="119" t="inlineStr">
+        <is>
+          <t>定向流量</t>
+        </is>
+      </c>
+      <c r="D8" s="119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" s="121" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G8" s="122" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="H8" s="44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I8" s="123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J8" s="50" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K8" s="123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L8" s="123" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M8" s="123" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="N8" s="124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" s="128" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="Q8" s="127" t="n"/>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="140" t="inlineStr">
-        <is>
-          <t>三、网元定制</t>
-        </is>
-      </c>
-      <c r="B9" s="141" t="n"/>
-      <c r="C9" s="131" t="n"/>
-      <c r="D9" s="131" t="n"/>
-      <c r="E9" s="131" t="n"/>
-      <c r="F9" s="132" t="n"/>
-      <c r="G9" s="133" t="n"/>
-      <c r="H9" s="31" t="n"/>
-      <c r="I9" s="142" t="n"/>
-      <c r="J9" s="33" t="n"/>
-      <c r="K9" s="134" t="n"/>
-      <c r="L9" s="134" t="n"/>
-      <c r="M9" s="134" t="n"/>
-      <c r="N9" s="143" t="n"/>
-      <c r="O9" s="144" t="n"/>
-      <c r="P9" s="137" t="n"/>
-      <c r="Q9" s="138" t="n"/>
+      <c r="A9" s="117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B9" s="67" t="inlineStr">
+        <is>
+          <t>园区流量包</t>
+        </is>
+      </c>
+      <c r="C9" s="47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" s="122" t="inlineStr">
+        <is>
+          <t>户</t>
+        </is>
+      </c>
+      <c r="H9" s="44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I9" s="123" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J9" s="50" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K9" s="123" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L9" s="123" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M9" s="123" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N9" s="124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" s="125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" s="128" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="Q9" s="127" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="145" t="inlineStr">
+      <c r="A10" s="117" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B10" s="68" t="inlineStr">
+        <is>
+          <t>定制号卡</t>
+        </is>
+      </c>
+      <c r="C10" s="119" t="inlineStr">
+        <is>
+          <t>消费插拔卡</t>
+        </is>
+      </c>
+      <c r="D10" s="119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="121" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B10" s="118" t="inlineStr">
-        <is>
-          <t>用户面下沉+应急5GC网元下沉 高可用方案
-（1套UPF+1套应急5GC，含5G专网运营平台）
-风筝M：10G</t>
-        </is>
-      </c>
-      <c r="C10" s="120" t="inlineStr">
+      <c r="G10" s="122" t="inlineStr">
+        <is>
+          <t>张</t>
+        </is>
+      </c>
+      <c r="H10" s="44" t="inlineStr">
+        <is>
+          <t>一半6%,一半13%</t>
+        </is>
+      </c>
+      <c r="I10" s="123" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D10" s="120" t="inlineStr">
-        <is>
-          <t>一年一付</t>
-        </is>
-      </c>
-      <c r="E10" s="120" t="inlineStr">
-        <is>
-          <t>3年</t>
-        </is>
-      </c>
-      <c r="F10" s="121" t="inlineStr">
+      <c r="J10" s="50" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K10" s="123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" s="124" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" s="122" t="inlineStr">
-        <is>
-          <t>套</t>
-        </is>
-      </c>
-      <c r="H10" s="61" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I10" s="146" t="inlineStr">
-        <is>
-          <t>46290</t>
-        </is>
-      </c>
-      <c r="J10" s="63" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K10" s="123" t="inlineStr">
-        <is>
-          <t>46290</t>
-        </is>
-      </c>
-      <c r="L10" s="123" t="inlineStr">
-        <is>
-          <t>46290</t>
-        </is>
-      </c>
-      <c r="M10" s="123" t="inlineStr">
-        <is>
-          <t>555480</t>
-        </is>
-      </c>
-      <c r="N10" s="147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" s="148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" s="126" t="inlineStr">
-        <is>
-          <t>555480</t>
-        </is>
-      </c>
-      <c r="Q10" s="116" t="n"/>
+      <c r="O10" s="125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" s="128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q10" s="127" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="36" t="inlineStr">
+      <c r="A11" s="129" t="inlineStr">
+        <is>
+          <t>二、业务隔离费</t>
+        </is>
+      </c>
+      <c r="B11" s="118" t="n"/>
+      <c r="C11" s="130" t="n"/>
+      <c r="D11" s="130" t="n"/>
+      <c r="E11" s="130" t="n"/>
+      <c r="F11" s="131" t="n"/>
+      <c r="G11" s="132" t="n"/>
+      <c r="H11" s="132" t="n"/>
+      <c r="I11" s="133" t="n"/>
+      <c r="J11" s="22" t="n"/>
+      <c r="K11" s="133" t="n"/>
+      <c r="L11" s="133" t="n"/>
+      <c r="M11" s="133" t="n"/>
+      <c r="N11" s="134" t="n"/>
+      <c r="O11" s="135" t="n"/>
+      <c r="P11" s="136" t="n"/>
+      <c r="Q11" s="137" t="n"/>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" s="118" t="inlineStr">
+        <is>
+          <t>定制DNN</t>
+        </is>
+      </c>
+      <c r="C12" s="120" t="inlineStr">
+        <is>
+          <t>专网加密隧道服务</t>
+        </is>
+      </c>
+      <c r="D12" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" s="121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" s="122" t="inlineStr">
+        <is>
+          <t>线</t>
+        </is>
+      </c>
+      <c r="H12" s="44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I12" s="123" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J12" s="50" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K12" s="123" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="L12" s="123" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M12" s="123" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N12" s="124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" s="125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" s="126" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="Q12" s="127" t="n"/>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="138" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B11" s="37" t="inlineStr">
+      <c r="B13" s="46" t="inlineStr">
+        <is>
+          <t>无线 VPDN 群</t>
+        </is>
+      </c>
+      <c r="C13" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="122" t="inlineStr">
+        <is>
+          <t>线</t>
+        </is>
+      </c>
+      <c r="H13" s="44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="123" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J13" s="50" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K13" s="123" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="L13" s="123" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M13" s="123" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="N13" s="124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" s="125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" s="126" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="Q13" s="127" t="n"/>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="139" t="inlineStr">
+        <is>
+          <t>三、网元定制</t>
+        </is>
+      </c>
+      <c r="B14" s="140" t="n"/>
+      <c r="C14" s="130" t="n"/>
+      <c r="D14" s="130" t="n"/>
+      <c r="E14" s="130" t="n"/>
+      <c r="F14" s="131" t="n"/>
+      <c r="G14" s="132" t="n"/>
+      <c r="H14" s="31" t="n"/>
+      <c r="I14" s="141" t="n"/>
+      <c r="J14" s="33" t="n"/>
+      <c r="K14" s="133" t="n"/>
+      <c r="L14" s="133" t="n"/>
+      <c r="M14" s="133" t="n"/>
+      <c r="N14" s="142" t="n"/>
+      <c r="O14" s="143" t="n"/>
+      <c r="P14" s="136" t="n"/>
+      <c r="Q14" s="137" t="n"/>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="144" t="n"/>
+      <c r="B15" s="118" t="inlineStr">
+        <is>
+          <t>用户面下沉基础方案
+（1套UPF，含5G专网运营平台）</t>
+        </is>
+      </c>
+      <c r="C15" s="120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="120" t="inlineStr">
+        <is>
+          <t>一年一付</t>
+        </is>
+      </c>
+      <c r="E15" s="120" t="inlineStr">
+        <is>
+          <t>1年</t>
+        </is>
+      </c>
+      <c r="F15" s="121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" s="122" t="inlineStr">
+        <is>
+          <t>套</t>
+        </is>
+      </c>
+      <c r="H15" s="57" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I15" s="145" t="inlineStr">
+        <is>
+          <t>48675</t>
+        </is>
+      </c>
+      <c r="J15" s="59" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K15" s="123" t="inlineStr">
+        <is>
+          <t>48675</t>
+        </is>
+      </c>
+      <c r="L15" s="123" t="inlineStr">
+        <is>
+          <t>48675</t>
+        </is>
+      </c>
+      <c r="M15" s="123" t="inlineStr">
+        <is>
+          <t>584100</t>
+        </is>
+      </c>
+      <c r="N15" s="146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" s="147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" s="126" t="inlineStr">
+        <is>
+          <t>584100</t>
+        </is>
+      </c>
+      <c r="Q15" s="116" t="n"/>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B16" s="37" t="inlineStr">
         <is>
           <t>项目总计</t>
         </is>
       </c>
-      <c r="C11" s="66" t="n"/>
-      <c r="D11" s="66" t="n"/>
-      <c r="E11" s="37" t="n"/>
-      <c r="F11" s="37" t="n"/>
-      <c r="G11" s="149" t="n"/>
-      <c r="H11" s="149" t="n"/>
-      <c r="I11" s="149" t="n"/>
-      <c r="J11" s="149" t="n"/>
-      <c r="K11" s="150" t="n"/>
-      <c r="L11" s="149" t="n"/>
-      <c r="M11" s="151" t="inlineStr">
-        <is>
-          <t>1177080</t>
-        </is>
-      </c>
-      <c r="N11" s="150" t="n"/>
-      <c r="O11" s="152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" s="151" t="inlineStr">
-        <is>
-          <t>1177080</t>
-        </is>
-      </c>
-      <c r="Q11" s="149" t="n"/>
+      <c r="C16" s="62" t="n"/>
+      <c r="D16" s="62" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
+      <c r="G16" s="148" t="n"/>
+      <c r="H16" s="148" t="n"/>
+      <c r="I16" s="148" t="n"/>
+      <c r="J16" s="148" t="n"/>
+      <c r="K16" s="149" t="n"/>
+      <c r="L16" s="148" t="n"/>
+      <c r="M16" s="150" t="inlineStr">
+        <is>
+          <t>896160</t>
+        </is>
+      </c>
+      <c r="N16" s="149" t="n"/>
+      <c r="O16" s="151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P16" s="150" t="inlineStr">
+        <is>
+          <t>896161</t>
+        </is>
+      </c>
+      <c r="Q16" s="148" t="n"/>
     </row>
-    <row r="12" ht="30" customHeight="1"/>
-    <row r="13" ht="30" customHeight="1"/>
-    <row r="14" ht="30" customHeight="1"/>
-    <row r="15" ht="30" customHeight="1"/>
-    <row r="16" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:Q1"/>
